--- a/친구들 생일.xlsx
+++ b/친구들 생일.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\박진형\일상\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E36660-0482-4BFD-A5F9-96D085EDD988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3992FD4C-EB9F-4C27-BB9D-26CB3E117990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="320">
   <si>
     <t>친구들 생일</t>
   </si>
@@ -1134,6 +1134,38 @@
   </si>
   <si>
     <t>하진재(변경)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방준호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>차동하</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박민지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이현경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오협</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마경도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김경회</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2903,13 +2935,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC83E04-3D90-4F57-8697-B3FBC635CDA9}">
-  <dimension ref="B2:M29"/>
+  <dimension ref="B2:S29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>180120</v>
       </c>
@@ -2937,8 +2971,17 @@
       <c r="M2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="Q2">
+        <v>220212</v>
+      </c>
+      <c r="R2" t="s">
+        <v>317</v>
+      </c>
+      <c r="S2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>180429</v>
       </c>
@@ -2966,8 +3009,17 @@
       <c r="M3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="Q3">
+        <v>220326</v>
+      </c>
+      <c r="R3" t="s">
+        <v>318</v>
+      </c>
+      <c r="S3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>180512</v>
       </c>
@@ -2995,8 +3047,17 @@
       <c r="M4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="Q4">
+        <v>220514</v>
+      </c>
+      <c r="R4" t="s">
+        <v>319</v>
+      </c>
+      <c r="S4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>180915</v>
       </c>
@@ -3024,8 +3085,17 @@
       <c r="M5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="Q5">
+        <v>220522</v>
+      </c>
+      <c r="R5" t="s">
+        <v>140</v>
+      </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
       <c r="F6">
         <v>200523</v>
       </c>
@@ -3047,8 +3117,17 @@
       <c r="M6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="Q6">
+        <v>220627</v>
+      </c>
+      <c r="R6" t="s">
+        <v>158</v>
+      </c>
+      <c r="S6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>190922</v>
       </c>
@@ -3067,8 +3146,17 @@
       <c r="H7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <v>211003</v>
+      </c>
+      <c r="L7" t="s">
+        <v>312</v>
+      </c>
+      <c r="M7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>191026</v>
       </c>
@@ -3084,8 +3172,14 @@
       <c r="H8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L8" t="s">
+        <v>313</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>191102</v>
       </c>
@@ -3104,8 +3198,14 @@
       <c r="H9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L9" t="s">
+        <v>314</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>191201</v>
       </c>
@@ -3124,8 +3224,17 @@
       <c r="H10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="K10">
+        <v>211009</v>
+      </c>
+      <c r="L10" t="s">
+        <v>315</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>191207</v>
       </c>
@@ -3144,8 +3253,17 @@
       <c r="H11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="K11">
+        <v>211010</v>
+      </c>
+      <c r="L11" t="s">
+        <v>210</v>
+      </c>
+      <c r="M11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
       <c r="F12">
         <v>200919</v>
       </c>
@@ -3155,8 +3273,17 @@
       <c r="H12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="K12">
+        <v>211212</v>
+      </c>
+      <c r="L12" t="s">
+        <v>175</v>
+      </c>
+      <c r="M12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
       <c r="F13">
         <v>200920</v>
       </c>
@@ -3166,8 +3293,14 @@
       <c r="H13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L13" t="s">
+        <v>316</v>
+      </c>
+      <c r="M13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
       <c r="F14">
         <v>201024</v>
       </c>
@@ -3178,7 +3311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
       <c r="F15">
         <v>201101</v>
       </c>
@@ -3189,7 +3322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
       <c r="F16">
         <v>201128</v>
       </c>

--- a/친구들 생일.xlsx
+++ b/친구들 생일.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3992FD4C-EB9F-4C27-BB9D-26CB3E117990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D26432C-2908-4F49-ADA7-07034432CC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1621,50 +1621,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AL27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="16.5" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="1.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="1.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="1.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="8.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="1.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="5.625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="8.625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="1.625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="5.625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="8.625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="1.625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="5.625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="8.625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="1.625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="5.625" style="2" customWidth="1"/>
-    <col min="24" max="24" width="8.625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="1.625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="5.625" style="2" customWidth="1"/>
-    <col min="27" max="27" width="8.625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="1.625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="5.625" style="2" customWidth="1"/>
-    <col min="30" max="30" width="8.625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="1.625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="5.625" style="2" customWidth="1"/>
-    <col min="33" max="33" width="8.625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="1.625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="5.625" style="2" customWidth="1"/>
-    <col min="36" max="36" width="8.625" style="1" customWidth="1"/>
-    <col min="37" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="1.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.59765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.59765625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.59765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="1.59765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.59765625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.59765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="1.59765625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.59765625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8.59765625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="1.59765625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.59765625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.59765625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="1.59765625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="5.59765625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="8.59765625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="1.59765625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="5.59765625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="8.59765625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="1.59765625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="5.59765625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="8.59765625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="1.59765625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="5.59765625" style="2" customWidth="1"/>
+    <col min="27" max="27" width="8.59765625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="1.59765625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="5.59765625" style="2" customWidth="1"/>
+    <col min="30" max="30" width="8.59765625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="1.59765625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="5.59765625" style="2" customWidth="1"/>
+    <col min="33" max="33" width="8.59765625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="1.59765625" style="1" customWidth="1"/>
+    <col min="35" max="35" width="5.59765625" style="2" customWidth="1"/>
+    <col min="36" max="36" width="8.59765625" style="1" customWidth="1"/>
+    <col min="37" max="16384" width="8.84765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:38" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:38" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1703,7 +1703,7 @@
       <c r="AI1" s="5"/>
       <c r="AJ1" s="6"/>
     </row>
-    <row r="3" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:38" x14ac:dyDescent="0.7">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:38" x14ac:dyDescent="0.7">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:38" x14ac:dyDescent="0.7">
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:38" x14ac:dyDescent="0.7">
       <c r="B6" s="2" t="s">
         <v>220</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:38" x14ac:dyDescent="0.7">
       <c r="C7" s="1" t="s">
         <v>310</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="8" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:38" x14ac:dyDescent="0.7">
       <c r="B8" s="2">
         <v>5</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="9" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:38" x14ac:dyDescent="0.7">
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="10" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:38" x14ac:dyDescent="0.7">
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:38" x14ac:dyDescent="0.7">
       <c r="C11" s="1" t="s">
         <v>119</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:38" x14ac:dyDescent="0.7">
       <c r="B12" s="2" t="s">
         <v>193</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:38" x14ac:dyDescent="0.7">
       <c r="B13" s="2">
         <v>14</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:38" x14ac:dyDescent="0.7">
       <c r="C14" s="1" t="s">
         <v>189</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:38" x14ac:dyDescent="0.7">
       <c r="B15" s="2">
         <v>17</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="16" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:38" x14ac:dyDescent="0.7">
       <c r="B16" s="2">
         <v>22</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:36" x14ac:dyDescent="0.7">
       <c r="B17" s="2">
         <v>23</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="18" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:36" x14ac:dyDescent="0.7">
       <c r="B18" s="2">
         <v>26</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:36" x14ac:dyDescent="0.7">
       <c r="B19" s="2" t="s">
         <v>305</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:36" x14ac:dyDescent="0.7">
       <c r="B20" s="2">
         <v>27</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="21" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:36" x14ac:dyDescent="0.7">
       <c r="C21" s="1" t="s">
         <v>138</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="22" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:36" x14ac:dyDescent="0.7">
       <c r="B22" s="2">
         <v>29</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:36" x14ac:dyDescent="0.7">
       <c r="B23" s="2" t="s">
         <v>155</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="24" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:36" x14ac:dyDescent="0.7">
       <c r="N24" s="2">
         <v>28</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:36" x14ac:dyDescent="0.7">
       <c r="N25" s="2">
         <v>30</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:36" x14ac:dyDescent="0.7">
       <c r="T26" s="2" t="s">
         <v>191</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:36" x14ac:dyDescent="0.7">
       <c r="T27" s="2" t="s">
         <v>170</v>
       </c>
@@ -2937,13 +2937,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC83E04-3D90-4F57-8697-B3FBC635CDA9}">
   <dimension ref="B2:S29"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.7"/>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.7">
       <c r="B2">
         <v>180120</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.7">
       <c r="B3">
         <v>180429</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.7">
       <c r="B4">
         <v>180512</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.7">
       <c r="B5">
         <v>180915</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.7">
       <c r="F6">
         <v>200523</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.7">
       <c r="B7">
         <v>190922</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.7">
       <c r="B8">
         <v>191026</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.7">
       <c r="B9">
         <v>191102</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.7">
       <c r="B10">
         <v>191201</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.7">
       <c r="B11">
         <v>191207</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.7">
       <c r="F12">
         <v>200919</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.7">
       <c r="F13">
         <v>200920</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.7">
       <c r="F14">
         <v>201024</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.7">
       <c r="F15">
         <v>201101</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.7">
       <c r="F16">
         <v>201128</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:8" x14ac:dyDescent="0.7">
       <c r="F17">
         <v>201129</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:8" x14ac:dyDescent="0.7">
       <c r="F18">
         <v>201219</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="6:8" x14ac:dyDescent="0.7">
       <c r="F28">
         <v>200922</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="6:8" x14ac:dyDescent="0.7">
       <c r="F29">
         <v>210712</v>
       </c>
